--- a/all_data/FEDFUNDS.xlsx
+++ b/all_data/FEDFUNDS.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Personal\Documents\HKI-2023-2024\CS114\project2\all_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\CS114.O11.KHCL-21521014\all_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6FAE6A6-9BE4-4DF6-967F-F0A382CB2E7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A6A740F-34E3-4C26-A015-1F0D158B481D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,9 +32,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
-  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -61,9 +58,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -381,15 +377,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B163"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="256" width="20.7109375" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
+    <col min="2" max="256" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
@@ -398,9 +397,9 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>40360</v>
-      </c>
-      <c r="B2" s="2">
+        <v>40377</v>
+      </c>
+      <c r="B2" s="1">
         <v>0.18</v>
       </c>
     </row>
@@ -408,7 +407,7 @@
       <c r="A3" s="1">
         <v>40391</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>0.19</v>
       </c>
     </row>
@@ -416,7 +415,7 @@
       <c r="A4" s="1">
         <v>40422</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>0.19</v>
       </c>
     </row>
@@ -424,7 +423,7 @@
       <c r="A5" s="1">
         <v>40452</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>0.19</v>
       </c>
     </row>
@@ -432,7 +431,7 @@
       <c r="A6" s="1">
         <v>40483</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>0.19</v>
       </c>
     </row>
@@ -440,7 +439,7 @@
       <c r="A7" s="1">
         <v>40513</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="1">
         <v>0.18</v>
       </c>
     </row>
@@ -448,7 +447,7 @@
       <c r="A8" s="1">
         <v>40544</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="1">
         <v>0.17</v>
       </c>
     </row>
@@ -456,7 +455,7 @@
       <c r="A9" s="1">
         <v>40575</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="1">
         <v>0.16</v>
       </c>
     </row>
@@ -464,7 +463,7 @@
       <c r="A10" s="1">
         <v>40603</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="1">
         <v>0.14000000000000001</v>
       </c>
     </row>
@@ -472,7 +471,7 @@
       <c r="A11" s="1">
         <v>40634</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="1">
         <v>0.1</v>
       </c>
     </row>
@@ -480,7 +479,7 @@
       <c r="A12" s="1">
         <v>40664</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="1">
         <v>0.09</v>
       </c>
     </row>
@@ -488,7 +487,7 @@
       <c r="A13" s="1">
         <v>40695</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="1">
         <v>0.09</v>
       </c>
     </row>
@@ -496,7 +495,7 @@
       <c r="A14" s="1">
         <v>40725</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
@@ -504,7 +503,7 @@
       <c r="A15" s="1">
         <v>40756</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="1">
         <v>0.1</v>
       </c>
     </row>
@@ -512,7 +511,7 @@
       <c r="A16" s="1">
         <v>40787</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="1">
         <v>0.08</v>
       </c>
     </row>
@@ -520,7 +519,7 @@
       <c r="A17" s="1">
         <v>40817</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
@@ -528,7 +527,7 @@
       <c r="A18" s="1">
         <v>40848</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="1">
         <v>0.08</v>
       </c>
     </row>
@@ -536,7 +535,7 @@
       <c r="A19" s="1">
         <v>40878</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
@@ -544,7 +543,7 @@
       <c r="A20" s="1">
         <v>40909</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="1">
         <v>0.08</v>
       </c>
     </row>
@@ -552,7 +551,7 @@
       <c r="A21" s="1">
         <v>40940</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="1">
         <v>0.1</v>
       </c>
     </row>
@@ -560,7 +559,7 @@
       <c r="A22" s="1">
         <v>40969</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="1">
         <v>0.13</v>
       </c>
     </row>
@@ -568,7 +567,7 @@
       <c r="A23" s="1">
         <v>41000</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="1">
         <v>0.14000000000000001</v>
       </c>
     </row>
@@ -576,7 +575,7 @@
       <c r="A24" s="1">
         <v>41030</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="1">
         <v>0.16</v>
       </c>
     </row>
@@ -584,7 +583,7 @@
       <c r="A25" s="1">
         <v>41061</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="1">
         <v>0.16</v>
       </c>
     </row>
@@ -592,7 +591,7 @@
       <c r="A26" s="1">
         <v>41091</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" s="1">
         <v>0.16</v>
       </c>
     </row>
@@ -600,7 +599,7 @@
       <c r="A27" s="1">
         <v>41122</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27" s="1">
         <v>0.13</v>
       </c>
     </row>
@@ -608,7 +607,7 @@
       <c r="A28" s="1">
         <v>41153</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28" s="1">
         <v>0.14000000000000001</v>
       </c>
     </row>
@@ -616,7 +615,7 @@
       <c r="A29" s="1">
         <v>41183</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29" s="1">
         <v>0.16</v>
       </c>
     </row>
@@ -624,7 +623,7 @@
       <c r="A30" s="1">
         <v>41214</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30" s="1">
         <v>0.16</v>
       </c>
     </row>
@@ -632,7 +631,7 @@
       <c r="A31" s="1">
         <v>41244</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31" s="1">
         <v>0.16</v>
       </c>
     </row>
@@ -640,7 +639,7 @@
       <c r="A32" s="1">
         <v>41275</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32" s="1">
         <v>0.14000000000000001</v>
       </c>
     </row>
@@ -648,7 +647,7 @@
       <c r="A33" s="1">
         <v>41306</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B33" s="1">
         <v>0.15</v>
       </c>
     </row>
@@ -656,7 +655,7 @@
       <c r="A34" s="1">
         <v>41334</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B34" s="1">
         <v>0.14000000000000001</v>
       </c>
     </row>
@@ -664,7 +663,7 @@
       <c r="A35" s="1">
         <v>41365</v>
       </c>
-      <c r="B35" s="2">
+      <c r="B35" s="1">
         <v>0.15</v>
       </c>
     </row>
@@ -672,7 +671,7 @@
       <c r="A36" s="1">
         <v>41395</v>
       </c>
-      <c r="B36" s="2">
+      <c r="B36" s="1">
         <v>0.11</v>
       </c>
     </row>
@@ -680,7 +679,7 @@
       <c r="A37" s="1">
         <v>41426</v>
       </c>
-      <c r="B37" s="2">
+      <c r="B37" s="1">
         <v>0.09</v>
       </c>
     </row>
@@ -688,7 +687,7 @@
       <c r="A38" s="1">
         <v>41456</v>
       </c>
-      <c r="B38" s="2">
+      <c r="B38" s="1">
         <v>0.09</v>
       </c>
     </row>
@@ -696,7 +695,7 @@
       <c r="A39" s="1">
         <v>41487</v>
       </c>
-      <c r="B39" s="2">
+      <c r="B39" s="1">
         <v>0.08</v>
       </c>
     </row>
@@ -704,7 +703,7 @@
       <c r="A40" s="1">
         <v>41518</v>
       </c>
-      <c r="B40" s="2">
+      <c r="B40" s="1">
         <v>0.08</v>
       </c>
     </row>
@@ -712,7 +711,7 @@
       <c r="A41" s="1">
         <v>41548</v>
       </c>
-      <c r="B41" s="2">
+      <c r="B41" s="1">
         <v>0.09</v>
       </c>
     </row>
@@ -720,7 +719,7 @@
       <c r="A42" s="1">
         <v>41579</v>
       </c>
-      <c r="B42" s="2">
+      <c r="B42" s="1">
         <v>0.08</v>
       </c>
     </row>
@@ -728,7 +727,7 @@
       <c r="A43" s="1">
         <v>41609</v>
       </c>
-      <c r="B43" s="2">
+      <c r="B43" s="1">
         <v>0.09</v>
       </c>
     </row>
@@ -736,7 +735,7 @@
       <c r="A44" s="1">
         <v>41640</v>
       </c>
-      <c r="B44" s="2">
+      <c r="B44" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
@@ -744,7 +743,7 @@
       <c r="A45" s="1">
         <v>41671</v>
       </c>
-      <c r="B45" s="2">
+      <c r="B45" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
@@ -752,7 +751,7 @@
       <c r="A46" s="1">
         <v>41699</v>
       </c>
-      <c r="B46" s="2">
+      <c r="B46" s="1">
         <v>0.08</v>
       </c>
     </row>
@@ -760,7 +759,7 @@
       <c r="A47" s="1">
         <v>41730</v>
       </c>
-      <c r="B47" s="2">
+      <c r="B47" s="1">
         <v>0.09</v>
       </c>
     </row>
@@ -768,7 +767,7 @@
       <c r="A48" s="1">
         <v>41760</v>
       </c>
-      <c r="B48" s="2">
+      <c r="B48" s="1">
         <v>0.09</v>
       </c>
     </row>
@@ -776,7 +775,7 @@
       <c r="A49" s="1">
         <v>41791</v>
       </c>
-      <c r="B49" s="2">
+      <c r="B49" s="1">
         <v>0.1</v>
       </c>
     </row>
@@ -784,7 +783,7 @@
       <c r="A50" s="1">
         <v>41821</v>
       </c>
-      <c r="B50" s="2">
+      <c r="B50" s="1">
         <v>0.09</v>
       </c>
     </row>
@@ -792,7 +791,7 @@
       <c r="A51" s="1">
         <v>41852</v>
       </c>
-      <c r="B51" s="2">
+      <c r="B51" s="1">
         <v>0.09</v>
       </c>
     </row>
@@ -800,7 +799,7 @@
       <c r="A52" s="1">
         <v>41883</v>
       </c>
-      <c r="B52" s="2">
+      <c r="B52" s="1">
         <v>0.09</v>
       </c>
     </row>
@@ -808,7 +807,7 @@
       <c r="A53" s="1">
         <v>41913</v>
       </c>
-      <c r="B53" s="2">
+      <c r="B53" s="1">
         <v>0.09</v>
       </c>
     </row>
@@ -816,7 +815,7 @@
       <c r="A54" s="1">
         <v>41944</v>
       </c>
-      <c r="B54" s="2">
+      <c r="B54" s="1">
         <v>0.09</v>
       </c>
     </row>
@@ -824,7 +823,7 @@
       <c r="A55" s="1">
         <v>41974</v>
       </c>
-      <c r="B55" s="2">
+      <c r="B55" s="1">
         <v>0.12</v>
       </c>
     </row>
@@ -832,7 +831,7 @@
       <c r="A56" s="1">
         <v>42005</v>
       </c>
-      <c r="B56" s="2">
+      <c r="B56" s="1">
         <v>0.11</v>
       </c>
     </row>
@@ -840,7 +839,7 @@
       <c r="A57" s="1">
         <v>42036</v>
       </c>
-      <c r="B57" s="2">
+      <c r="B57" s="1">
         <v>0.11</v>
       </c>
     </row>
@@ -848,7 +847,7 @@
       <c r="A58" s="1">
         <v>42064</v>
       </c>
-      <c r="B58" s="2">
+      <c r="B58" s="1">
         <v>0.11</v>
       </c>
     </row>
@@ -856,7 +855,7 @@
       <c r="A59" s="1">
         <v>42095</v>
       </c>
-      <c r="B59" s="2">
+      <c r="B59" s="1">
         <v>0.12</v>
       </c>
     </row>
@@ -864,7 +863,7 @@
       <c r="A60" s="1">
         <v>42125</v>
       </c>
-      <c r="B60" s="2">
+      <c r="B60" s="1">
         <v>0.12</v>
       </c>
     </row>
@@ -872,7 +871,7 @@
       <c r="A61" s="1">
         <v>42156</v>
       </c>
-      <c r="B61" s="2">
+      <c r="B61" s="1">
         <v>0.13</v>
       </c>
     </row>
@@ -880,7 +879,7 @@
       <c r="A62" s="1">
         <v>42186</v>
       </c>
-      <c r="B62" s="2">
+      <c r="B62" s="1">
         <v>0.13</v>
       </c>
     </row>
@@ -888,7 +887,7 @@
       <c r="A63" s="1">
         <v>42217</v>
       </c>
-      <c r="B63" s="2">
+      <c r="B63" s="1">
         <v>0.14000000000000001</v>
       </c>
     </row>
@@ -896,7 +895,7 @@
       <c r="A64" s="1">
         <v>42248</v>
       </c>
-      <c r="B64" s="2">
+      <c r="B64" s="1">
         <v>0.14000000000000001</v>
       </c>
     </row>
@@ -904,7 +903,7 @@
       <c r="A65" s="1">
         <v>42278</v>
       </c>
-      <c r="B65" s="2">
+      <c r="B65" s="1">
         <v>0.12</v>
       </c>
     </row>
@@ -912,7 +911,7 @@
       <c r="A66" s="1">
         <v>42309</v>
       </c>
-      <c r="B66" s="2">
+      <c r="B66" s="1">
         <v>0.12</v>
       </c>
     </row>
@@ -920,7 +919,7 @@
       <c r="A67" s="1">
         <v>42339</v>
       </c>
-      <c r="B67" s="2">
+      <c r="B67" s="1">
         <v>0.24</v>
       </c>
     </row>
@@ -928,7 +927,7 @@
       <c r="A68" s="1">
         <v>42370</v>
       </c>
-      <c r="B68" s="2">
+      <c r="B68" s="1">
         <v>0.34</v>
       </c>
     </row>
@@ -936,7 +935,7 @@
       <c r="A69" s="1">
         <v>42401</v>
       </c>
-      <c r="B69" s="2">
+      <c r="B69" s="1">
         <v>0.38</v>
       </c>
     </row>
@@ -944,7 +943,7 @@
       <c r="A70" s="1">
         <v>42430</v>
       </c>
-      <c r="B70" s="2">
+      <c r="B70" s="1">
         <v>0.36</v>
       </c>
     </row>
@@ -952,7 +951,7 @@
       <c r="A71" s="1">
         <v>42461</v>
       </c>
-      <c r="B71" s="2">
+      <c r="B71" s="1">
         <v>0.37</v>
       </c>
     </row>
@@ -960,7 +959,7 @@
       <c r="A72" s="1">
         <v>42491</v>
       </c>
-      <c r="B72" s="2">
+      <c r="B72" s="1">
         <v>0.37</v>
       </c>
     </row>
@@ -968,7 +967,7 @@
       <c r="A73" s="1">
         <v>42522</v>
       </c>
-      <c r="B73" s="2">
+      <c r="B73" s="1">
         <v>0.38</v>
       </c>
     </row>
@@ -976,7 +975,7 @@
       <c r="A74" s="1">
         <v>42552</v>
       </c>
-      <c r="B74" s="2">
+      <c r="B74" s="1">
         <v>0.39</v>
       </c>
     </row>
@@ -984,7 +983,7 @@
       <c r="A75" s="1">
         <v>42583</v>
       </c>
-      <c r="B75" s="2">
+      <c r="B75" s="1">
         <v>0.4</v>
       </c>
     </row>
@@ -992,7 +991,7 @@
       <c r="A76" s="1">
         <v>42614</v>
       </c>
-      <c r="B76" s="2">
+      <c r="B76" s="1">
         <v>0.4</v>
       </c>
     </row>
@@ -1000,7 +999,7 @@
       <c r="A77" s="1">
         <v>42644</v>
       </c>
-      <c r="B77" s="2">
+      <c r="B77" s="1">
         <v>0.4</v>
       </c>
     </row>
@@ -1008,7 +1007,7 @@
       <c r="A78" s="1">
         <v>42675</v>
       </c>
-      <c r="B78" s="2">
+      <c r="B78" s="1">
         <v>0.41</v>
       </c>
     </row>
@@ -1016,7 +1015,7 @@
       <c r="A79" s="1">
         <v>42705</v>
       </c>
-      <c r="B79" s="2">
+      <c r="B79" s="1">
         <v>0.54</v>
       </c>
     </row>
@@ -1024,7 +1023,7 @@
       <c r="A80" s="1">
         <v>42736</v>
       </c>
-      <c r="B80" s="2">
+      <c r="B80" s="1">
         <v>0.65</v>
       </c>
     </row>
@@ -1032,7 +1031,7 @@
       <c r="A81" s="1">
         <v>42767</v>
       </c>
-      <c r="B81" s="2">
+      <c r="B81" s="1">
         <v>0.66</v>
       </c>
     </row>
@@ -1040,7 +1039,7 @@
       <c r="A82" s="1">
         <v>42795</v>
       </c>
-      <c r="B82" s="2">
+      <c r="B82" s="1">
         <v>0.79</v>
       </c>
     </row>
@@ -1048,7 +1047,7 @@
       <c r="A83" s="1">
         <v>42826</v>
       </c>
-      <c r="B83" s="2">
+      <c r="B83" s="1">
         <v>0.9</v>
       </c>
     </row>
@@ -1056,7 +1055,7 @@
       <c r="A84" s="1">
         <v>42856</v>
       </c>
-      <c r="B84" s="2">
+      <c r="B84" s="1">
         <v>0.91</v>
       </c>
     </row>
@@ -1064,7 +1063,7 @@
       <c r="A85" s="1">
         <v>42887</v>
       </c>
-      <c r="B85" s="2">
+      <c r="B85" s="1">
         <v>1.04</v>
       </c>
     </row>
@@ -1072,7 +1071,7 @@
       <c r="A86" s="1">
         <v>42917</v>
       </c>
-      <c r="B86" s="2">
+      <c r="B86" s="1">
         <v>1.1499999999999999</v>
       </c>
     </row>
@@ -1080,7 +1079,7 @@
       <c r="A87" s="1">
         <v>42948</v>
       </c>
-      <c r="B87" s="2">
+      <c r="B87" s="1">
         <v>1.1599999999999999</v>
       </c>
     </row>
@@ -1088,7 +1087,7 @@
       <c r="A88" s="1">
         <v>42979</v>
       </c>
-      <c r="B88" s="2">
+      <c r="B88" s="1">
         <v>1.1499999999999999</v>
       </c>
     </row>
@@ -1096,7 +1095,7 @@
       <c r="A89" s="1">
         <v>43009</v>
       </c>
-      <c r="B89" s="2">
+      <c r="B89" s="1">
         <v>1.1499999999999999</v>
       </c>
     </row>
@@ -1104,7 +1103,7 @@
       <c r="A90" s="1">
         <v>43040</v>
       </c>
-      <c r="B90" s="2">
+      <c r="B90" s="1">
         <v>1.1599999999999999</v>
       </c>
     </row>
@@ -1112,7 +1111,7 @@
       <c r="A91" s="1">
         <v>43070</v>
       </c>
-      <c r="B91" s="2">
+      <c r="B91" s="1">
         <v>1.3</v>
       </c>
     </row>
@@ -1120,7 +1119,7 @@
       <c r="A92" s="1">
         <v>43101</v>
       </c>
-      <c r="B92" s="2">
+      <c r="B92" s="1">
         <v>1.41</v>
       </c>
     </row>
@@ -1128,7 +1127,7 @@
       <c r="A93" s="1">
         <v>43132</v>
       </c>
-      <c r="B93" s="2">
+      <c r="B93" s="1">
         <v>1.42</v>
       </c>
     </row>
@@ -1136,7 +1135,7 @@
       <c r="A94" s="1">
         <v>43160</v>
       </c>
-      <c r="B94" s="2">
+      <c r="B94" s="1">
         <v>1.51</v>
       </c>
     </row>
@@ -1144,7 +1143,7 @@
       <c r="A95" s="1">
         <v>43191</v>
       </c>
-      <c r="B95" s="2">
+      <c r="B95" s="1">
         <v>1.69</v>
       </c>
     </row>
@@ -1152,7 +1151,7 @@
       <c r="A96" s="1">
         <v>43221</v>
       </c>
-      <c r="B96" s="2">
+      <c r="B96" s="1">
         <v>1.7</v>
       </c>
     </row>
@@ -1160,7 +1159,7 @@
       <c r="A97" s="1">
         <v>43252</v>
       </c>
-      <c r="B97" s="2">
+      <c r="B97" s="1">
         <v>1.82</v>
       </c>
     </row>
@@ -1168,7 +1167,7 @@
       <c r="A98" s="1">
         <v>43282</v>
       </c>
-      <c r="B98" s="2">
+      <c r="B98" s="1">
         <v>1.91</v>
       </c>
     </row>
@@ -1176,7 +1175,7 @@
       <c r="A99" s="1">
         <v>43313</v>
       </c>
-      <c r="B99" s="2">
+      <c r="B99" s="1">
         <v>1.91</v>
       </c>
     </row>
@@ -1184,7 +1183,7 @@
       <c r="A100" s="1">
         <v>43344</v>
       </c>
-      <c r="B100" s="2">
+      <c r="B100" s="1">
         <v>1.95</v>
       </c>
     </row>
@@ -1192,7 +1191,7 @@
       <c r="A101" s="1">
         <v>43374</v>
       </c>
-      <c r="B101" s="2">
+      <c r="B101" s="1">
         <v>2.19</v>
       </c>
     </row>
@@ -1200,7 +1199,7 @@
       <c r="A102" s="1">
         <v>43405</v>
       </c>
-      <c r="B102" s="2">
+      <c r="B102" s="1">
         <v>2.2000000000000002</v>
       </c>
     </row>
@@ -1208,7 +1207,7 @@
       <c r="A103" s="1">
         <v>43435</v>
       </c>
-      <c r="B103" s="2">
+      <c r="B103" s="1">
         <v>2.27</v>
       </c>
     </row>
@@ -1216,7 +1215,7 @@
       <c r="A104" s="1">
         <v>43466</v>
       </c>
-      <c r="B104" s="2">
+      <c r="B104" s="1">
         <v>2.4</v>
       </c>
     </row>
@@ -1224,7 +1223,7 @@
       <c r="A105" s="1">
         <v>43497</v>
       </c>
-      <c r="B105" s="2">
+      <c r="B105" s="1">
         <v>2.4</v>
       </c>
     </row>
@@ -1232,7 +1231,7 @@
       <c r="A106" s="1">
         <v>43525</v>
       </c>
-      <c r="B106" s="2">
+      <c r="B106" s="1">
         <v>2.41</v>
       </c>
     </row>
@@ -1240,7 +1239,7 @@
       <c r="A107" s="1">
         <v>43556</v>
       </c>
-      <c r="B107" s="2">
+      <c r="B107" s="1">
         <v>2.42</v>
       </c>
     </row>
@@ -1248,7 +1247,7 @@
       <c r="A108" s="1">
         <v>43586</v>
       </c>
-      <c r="B108" s="2">
+      <c r="B108" s="1">
         <v>2.39</v>
       </c>
     </row>
@@ -1256,7 +1255,7 @@
       <c r="A109" s="1">
         <v>43617</v>
       </c>
-      <c r="B109" s="2">
+      <c r="B109" s="1">
         <v>2.38</v>
       </c>
     </row>
@@ -1264,7 +1263,7 @@
       <c r="A110" s="1">
         <v>43647</v>
       </c>
-      <c r="B110" s="2">
+      <c r="B110" s="1">
         <v>2.4</v>
       </c>
     </row>
@@ -1272,7 +1271,7 @@
       <c r="A111" s="1">
         <v>43678</v>
       </c>
-      <c r="B111" s="2">
+      <c r="B111" s="1">
         <v>2.13</v>
       </c>
     </row>
@@ -1280,7 +1279,7 @@
       <c r="A112" s="1">
         <v>43709</v>
       </c>
-      <c r="B112" s="2">
+      <c r="B112" s="1">
         <v>2.04</v>
       </c>
     </row>
@@ -1288,7 +1287,7 @@
       <c r="A113" s="1">
         <v>43739</v>
       </c>
-      <c r="B113" s="2">
+      <c r="B113" s="1">
         <v>1.83</v>
       </c>
     </row>
@@ -1296,7 +1295,7 @@
       <c r="A114" s="1">
         <v>43770</v>
       </c>
-      <c r="B114" s="2">
+      <c r="B114" s="1">
         <v>1.55</v>
       </c>
     </row>
@@ -1304,7 +1303,7 @@
       <c r="A115" s="1">
         <v>43800</v>
       </c>
-      <c r="B115" s="2">
+      <c r="B115" s="1">
         <v>1.55</v>
       </c>
     </row>
@@ -1312,7 +1311,7 @@
       <c r="A116" s="1">
         <v>43831</v>
       </c>
-      <c r="B116" s="2">
+      <c r="B116" s="1">
         <v>1.55</v>
       </c>
     </row>
@@ -1320,7 +1319,7 @@
       <c r="A117" s="1">
         <v>43862</v>
       </c>
-      <c r="B117" s="2">
+      <c r="B117" s="1">
         <v>1.58</v>
       </c>
     </row>
@@ -1328,7 +1327,7 @@
       <c r="A118" s="1">
         <v>43891</v>
       </c>
-      <c r="B118" s="2">
+      <c r="B118" s="1">
         <v>0.65</v>
       </c>
     </row>
@@ -1336,7 +1335,7 @@
       <c r="A119" s="1">
         <v>43922</v>
       </c>
-      <c r="B119" s="2">
+      <c r="B119" s="1">
         <v>0.05</v>
       </c>
     </row>
@@ -1344,7 +1343,7 @@
       <c r="A120" s="1">
         <v>43952</v>
       </c>
-      <c r="B120" s="2">
+      <c r="B120" s="1">
         <v>0.05</v>
       </c>
     </row>
@@ -1352,7 +1351,7 @@
       <c r="A121" s="1">
         <v>43983</v>
       </c>
-      <c r="B121" s="2">
+      <c r="B121" s="1">
         <v>0.08</v>
       </c>
     </row>
@@ -1360,7 +1359,7 @@
       <c r="A122" s="1">
         <v>44013</v>
       </c>
-      <c r="B122" s="2">
+      <c r="B122" s="1">
         <v>0.09</v>
       </c>
     </row>
@@ -1368,7 +1367,7 @@
       <c r="A123" s="1">
         <v>44044</v>
       </c>
-      <c r="B123" s="2">
+      <c r="B123" s="1">
         <v>0.1</v>
       </c>
     </row>
@@ -1376,7 +1375,7 @@
       <c r="A124" s="1">
         <v>44075</v>
       </c>
-      <c r="B124" s="2">
+      <c r="B124" s="1">
         <v>0.09</v>
       </c>
     </row>
@@ -1384,7 +1383,7 @@
       <c r="A125" s="1">
         <v>44105</v>
       </c>
-      <c r="B125" s="2">
+      <c r="B125" s="1">
         <v>0.09</v>
       </c>
     </row>
@@ -1392,7 +1391,7 @@
       <c r="A126" s="1">
         <v>44136</v>
       </c>
-      <c r="B126" s="2">
+      <c r="B126" s="1">
         <v>0.09</v>
       </c>
     </row>
@@ -1400,7 +1399,7 @@
       <c r="A127" s="1">
         <v>44166</v>
       </c>
-      <c r="B127" s="2">
+      <c r="B127" s="1">
         <v>0.09</v>
       </c>
     </row>
@@ -1408,7 +1407,7 @@
       <c r="A128" s="1">
         <v>44197</v>
       </c>
-      <c r="B128" s="2">
+      <c r="B128" s="1">
         <v>0.09</v>
       </c>
     </row>
@@ -1416,7 +1415,7 @@
       <c r="A129" s="1">
         <v>44228</v>
       </c>
-      <c r="B129" s="2">
+      <c r="B129" s="1">
         <v>0.08</v>
       </c>
     </row>
@@ -1424,7 +1423,7 @@
       <c r="A130" s="1">
         <v>44256</v>
       </c>
-      <c r="B130" s="2">
+      <c r="B130" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
@@ -1432,7 +1431,7 @@
       <c r="A131" s="1">
         <v>44287</v>
       </c>
-      <c r="B131" s="2">
+      <c r="B131" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
@@ -1440,7 +1439,7 @@
       <c r="A132" s="1">
         <v>44317</v>
       </c>
-      <c r="B132" s="2">
+      <c r="B132" s="1">
         <v>0.06</v>
       </c>
     </row>
@@ -1448,7 +1447,7 @@
       <c r="A133" s="1">
         <v>44348</v>
       </c>
-      <c r="B133" s="2">
+      <c r="B133" s="1">
         <v>0.08</v>
       </c>
     </row>
@@ -1456,7 +1455,7 @@
       <c r="A134" s="1">
         <v>44378</v>
       </c>
-      <c r="B134" s="2">
+      <c r="B134" s="1">
         <v>0.1</v>
       </c>
     </row>
@@ -1464,7 +1463,7 @@
       <c r="A135" s="1">
         <v>44409</v>
       </c>
-      <c r="B135" s="2">
+      <c r="B135" s="1">
         <v>0.09</v>
       </c>
     </row>
@@ -1472,7 +1471,7 @@
       <c r="A136" s="1">
         <v>44440</v>
       </c>
-      <c r="B136" s="2">
+      <c r="B136" s="1">
         <v>0.08</v>
       </c>
     </row>
@@ -1480,7 +1479,7 @@
       <c r="A137" s="1">
         <v>44470</v>
       </c>
-      <c r="B137" s="2">
+      <c r="B137" s="1">
         <v>0.08</v>
       </c>
     </row>
@@ -1488,7 +1487,7 @@
       <c r="A138" s="1">
         <v>44501</v>
       </c>
-      <c r="B138" s="2">
+      <c r="B138" s="1">
         <v>0.08</v>
       </c>
     </row>
@@ -1496,7 +1495,7 @@
       <c r="A139" s="1">
         <v>44531</v>
       </c>
-      <c r="B139" s="2">
+      <c r="B139" s="1">
         <v>0.08</v>
       </c>
     </row>
@@ -1504,7 +1503,7 @@
       <c r="A140" s="1">
         <v>44562</v>
       </c>
-      <c r="B140" s="2">
+      <c r="B140" s="1">
         <v>0.08</v>
       </c>
     </row>
@@ -1512,7 +1511,7 @@
       <c r="A141" s="1">
         <v>44593</v>
       </c>
-      <c r="B141" s="2">
+      <c r="B141" s="1">
         <v>0.08</v>
       </c>
     </row>
@@ -1520,7 +1519,7 @@
       <c r="A142" s="1">
         <v>44621</v>
       </c>
-      <c r="B142" s="2">
+      <c r="B142" s="1">
         <v>0.2</v>
       </c>
     </row>
@@ -1528,7 +1527,7 @@
       <c r="A143" s="1">
         <v>44652</v>
       </c>
-      <c r="B143" s="2">
+      <c r="B143" s="1">
         <v>0.33</v>
       </c>
     </row>
@@ -1536,7 +1535,7 @@
       <c r="A144" s="1">
         <v>44682</v>
       </c>
-      <c r="B144" s="2">
+      <c r="B144" s="1">
         <v>0.77</v>
       </c>
     </row>
@@ -1544,7 +1543,7 @@
       <c r="A145" s="1">
         <v>44713</v>
       </c>
-      <c r="B145" s="2">
+      <c r="B145" s="1">
         <v>1.21</v>
       </c>
     </row>
@@ -1552,7 +1551,7 @@
       <c r="A146" s="1">
         <v>44743</v>
       </c>
-      <c r="B146" s="2">
+      <c r="B146" s="1">
         <v>1.68</v>
       </c>
     </row>
@@ -1560,7 +1559,7 @@
       <c r="A147" s="1">
         <v>44774</v>
       </c>
-      <c r="B147" s="2">
+      <c r="B147" s="1">
         <v>2.33</v>
       </c>
     </row>
@@ -1568,7 +1567,7 @@
       <c r="A148" s="1">
         <v>44805</v>
       </c>
-      <c r="B148" s="2">
+      <c r="B148" s="1">
         <v>2.56</v>
       </c>
     </row>
@@ -1576,7 +1575,7 @@
       <c r="A149" s="1">
         <v>44835</v>
       </c>
-      <c r="B149" s="2">
+      <c r="B149" s="1">
         <v>3.08</v>
       </c>
     </row>
@@ -1584,7 +1583,7 @@
       <c r="A150" s="1">
         <v>44866</v>
       </c>
-      <c r="B150" s="2">
+      <c r="B150" s="1">
         <v>3.78</v>
       </c>
     </row>
@@ -1592,7 +1591,7 @@
       <c r="A151" s="1">
         <v>44896</v>
       </c>
-      <c r="B151" s="2">
+      <c r="B151" s="1">
         <v>4.0999999999999996</v>
       </c>
     </row>
@@ -1600,7 +1599,7 @@
       <c r="A152" s="1">
         <v>44927</v>
       </c>
-      <c r="B152" s="2">
+      <c r="B152" s="1">
         <v>4.33</v>
       </c>
     </row>
@@ -1608,7 +1607,7 @@
       <c r="A153" s="1">
         <v>44958</v>
       </c>
-      <c r="B153" s="2">
+      <c r="B153" s="1">
         <v>4.57</v>
       </c>
     </row>
@@ -1616,7 +1615,7 @@
       <c r="A154" s="1">
         <v>44986</v>
       </c>
-      <c r="B154" s="2">
+      <c r="B154" s="1">
         <v>4.6500000000000004</v>
       </c>
     </row>
@@ -1624,7 +1623,7 @@
       <c r="A155" s="1">
         <v>45017</v>
       </c>
-      <c r="B155" s="2">
+      <c r="B155" s="1">
         <v>4.83</v>
       </c>
     </row>
@@ -1632,7 +1631,7 @@
       <c r="A156" s="1">
         <v>45047</v>
       </c>
-      <c r="B156" s="2">
+      <c r="B156" s="1">
         <v>5.0599999999999996</v>
       </c>
     </row>
@@ -1640,7 +1639,7 @@
       <c r="A157" s="1">
         <v>45078</v>
       </c>
-      <c r="B157" s="2">
+      <c r="B157" s="1">
         <v>5.08</v>
       </c>
     </row>
@@ -1648,7 +1647,7 @@
       <c r="A158" s="1">
         <v>45108</v>
       </c>
-      <c r="B158" s="2">
+      <c r="B158" s="1">
         <v>5.12</v>
       </c>
     </row>
@@ -1656,7 +1655,7 @@
       <c r="A159" s="1">
         <v>45139</v>
       </c>
-      <c r="B159" s="2">
+      <c r="B159" s="1">
         <v>5.33</v>
       </c>
     </row>
@@ -1664,7 +1663,7 @@
       <c r="A160" s="1">
         <v>45170</v>
       </c>
-      <c r="B160" s="2">
+      <c r="B160" s="1">
         <v>5.33</v>
       </c>
     </row>
@@ -1672,7 +1671,7 @@
       <c r="A161" s="1">
         <v>45200</v>
       </c>
-      <c r="B161" s="2">
+      <c r="B161" s="1">
         <v>5.33</v>
       </c>
     </row>
@@ -1680,7 +1679,7 @@
       <c r="A162" s="1">
         <v>45231</v>
       </c>
-      <c r="B162" s="2">
+      <c r="B162" s="1">
         <v>5.33</v>
       </c>
     </row>
@@ -1688,7 +1687,7 @@
       <c r="A163" s="1">
         <v>45261</v>
       </c>
-      <c r="B163" s="2">
+      <c r="B163" s="1">
         <v>5.33</v>
       </c>
     </row>

--- a/all_data/FEDFUNDS.xlsx
+++ b/all_data/FEDFUNDS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\CS114.O11.KHCL-21521014\all_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A6A740F-34E3-4C26-A015-1F0D158B481D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C3E0B3A-4C8B-4353-A935-EA469F54C782}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,10 +32,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="[$-1010000]d/m/yyyy;@"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="163"/>
     </font>
   </fonts>
   <fills count="2">
@@ -58,9 +67,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
@@ -378,25 +389,25 @@
   <dimension ref="A1:B163"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.28515625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
-    <col min="2" max="256" width="20.7109375" customWidth="1"/>
+    <col min="1" max="1" width="11.85546875" style="3" customWidth="1"/>
+    <col min="2" max="16384" width="14.28515625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
+      <c r="A2" s="3">
         <v>40377</v>
       </c>
       <c r="B2" s="1">
@@ -404,7 +415,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
+      <c r="A3" s="3">
         <v>40391</v>
       </c>
       <c r="B3" s="1">
@@ -412,7 +423,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
+      <c r="A4" s="3">
         <v>40422</v>
       </c>
       <c r="B4" s="1">
@@ -420,7 +431,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
+      <c r="A5" s="3">
         <v>40452</v>
       </c>
       <c r="B5" s="1">
@@ -428,7 +439,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
+      <c r="A6" s="3">
         <v>40483</v>
       </c>
       <c r="B6" s="1">
@@ -436,7 +447,7 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
+      <c r="A7" s="3">
         <v>40513</v>
       </c>
       <c r="B7" s="1">
@@ -444,7 +455,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
+      <c r="A8" s="3">
         <v>40544</v>
       </c>
       <c r="B8" s="1">
@@ -452,7 +463,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
+      <c r="A9" s="3">
         <v>40575</v>
       </c>
       <c r="B9" s="1">
@@ -460,7 +471,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
+      <c r="A10" s="3">
         <v>40603</v>
       </c>
       <c r="B10" s="1">
@@ -468,7 +479,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
+      <c r="A11" s="3">
         <v>40634</v>
       </c>
       <c r="B11" s="1">
@@ -476,7 +487,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
+      <c r="A12" s="3">
         <v>40664</v>
       </c>
       <c r="B12" s="1">
@@ -484,7 +495,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
+      <c r="A13" s="3">
         <v>40695</v>
       </c>
       <c r="B13" s="1">
@@ -492,7 +503,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
+      <c r="A14" s="3">
         <v>40725</v>
       </c>
       <c r="B14" s="1">
@@ -500,7 +511,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
+      <c r="A15" s="3">
         <v>40756</v>
       </c>
       <c r="B15" s="1">
@@ -508,7 +519,7 @@
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
+      <c r="A16" s="3">
         <v>40787</v>
       </c>
       <c r="B16" s="1">
@@ -516,7 +527,7 @@
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
+      <c r="A17" s="3">
         <v>40817</v>
       </c>
       <c r="B17" s="1">
@@ -524,7 +535,7 @@
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
+      <c r="A18" s="3">
         <v>40848</v>
       </c>
       <c r="B18" s="1">
@@ -532,7 +543,7 @@
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
+      <c r="A19" s="3">
         <v>40878</v>
       </c>
       <c r="B19" s="1">
@@ -540,7 +551,7 @@
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
+      <c r="A20" s="3">
         <v>40909</v>
       </c>
       <c r="B20" s="1">
@@ -548,7 +559,7 @@
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
+      <c r="A21" s="3">
         <v>40940</v>
       </c>
       <c r="B21" s="1">
@@ -556,7 +567,7 @@
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
+      <c r="A22" s="3">
         <v>40969</v>
       </c>
       <c r="B22" s="1">
@@ -564,7 +575,7 @@
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
+      <c r="A23" s="3">
         <v>41000</v>
       </c>
       <c r="B23" s="1">
@@ -572,7 +583,7 @@
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
+      <c r="A24" s="3">
         <v>41030</v>
       </c>
       <c r="B24" s="1">
@@ -580,7 +591,7 @@
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
+      <c r="A25" s="3">
         <v>41061</v>
       </c>
       <c r="B25" s="1">
@@ -588,7 +599,7 @@
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="1">
+      <c r="A26" s="3">
         <v>41091</v>
       </c>
       <c r="B26" s="1">
@@ -596,7 +607,7 @@
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="1">
+      <c r="A27" s="3">
         <v>41122</v>
       </c>
       <c r="B27" s="1">
@@ -604,7 +615,7 @@
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="1">
+      <c r="A28" s="3">
         <v>41153</v>
       </c>
       <c r="B28" s="1">
@@ -612,7 +623,7 @@
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="1">
+      <c r="A29" s="3">
         <v>41183</v>
       </c>
       <c r="B29" s="1">
@@ -620,7 +631,7 @@
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="1">
+      <c r="A30" s="3">
         <v>41214</v>
       </c>
       <c r="B30" s="1">
@@ -628,7 +639,7 @@
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="1">
+      <c r="A31" s="3">
         <v>41244</v>
       </c>
       <c r="B31" s="1">
@@ -636,7 +647,7 @@
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="1">
+      <c r="A32" s="3">
         <v>41275</v>
       </c>
       <c r="B32" s="1">
@@ -644,7 +655,7 @@
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="1">
+      <c r="A33" s="3">
         <v>41306</v>
       </c>
       <c r="B33" s="1">
@@ -652,7 +663,7 @@
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="1">
+      <c r="A34" s="3">
         <v>41334</v>
       </c>
       <c r="B34" s="1">
@@ -660,7 +671,7 @@
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="1">
+      <c r="A35" s="3">
         <v>41365</v>
       </c>
       <c r="B35" s="1">
@@ -668,7 +679,7 @@
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="1">
+      <c r="A36" s="3">
         <v>41395</v>
       </c>
       <c r="B36" s="1">
@@ -676,7 +687,7 @@
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="1">
+      <c r="A37" s="3">
         <v>41426</v>
       </c>
       <c r="B37" s="1">
@@ -684,7 +695,7 @@
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="1">
+      <c r="A38" s="3">
         <v>41456</v>
       </c>
       <c r="B38" s="1">
@@ -692,7 +703,7 @@
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="1">
+      <c r="A39" s="3">
         <v>41487</v>
       </c>
       <c r="B39" s="1">
@@ -700,7 +711,7 @@
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="1">
+      <c r="A40" s="3">
         <v>41518</v>
       </c>
       <c r="B40" s="1">
@@ -708,7 +719,7 @@
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="1">
+      <c r="A41" s="3">
         <v>41548</v>
       </c>
       <c r="B41" s="1">
@@ -716,7 +727,7 @@
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" s="1">
+      <c r="A42" s="3">
         <v>41579</v>
       </c>
       <c r="B42" s="1">
@@ -724,7 +735,7 @@
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="1">
+      <c r="A43" s="3">
         <v>41609</v>
       </c>
       <c r="B43" s="1">
@@ -732,7 +743,7 @@
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="1">
+      <c r="A44" s="3">
         <v>41640</v>
       </c>
       <c r="B44" s="1">
@@ -740,7 +751,7 @@
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" s="1">
+      <c r="A45" s="3">
         <v>41671</v>
       </c>
       <c r="B45" s="1">
@@ -748,7 +759,7 @@
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" s="1">
+      <c r="A46" s="3">
         <v>41699</v>
       </c>
       <c r="B46" s="1">
@@ -756,7 +767,7 @@
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" s="1">
+      <c r="A47" s="3">
         <v>41730</v>
       </c>
       <c r="B47" s="1">
@@ -764,7 +775,7 @@
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" s="1">
+      <c r="A48" s="3">
         <v>41760</v>
       </c>
       <c r="B48" s="1">
@@ -772,7 +783,7 @@
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" s="1">
+      <c r="A49" s="3">
         <v>41791</v>
       </c>
       <c r="B49" s="1">
@@ -780,7 +791,7 @@
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" s="1">
+      <c r="A50" s="3">
         <v>41821</v>
       </c>
       <c r="B50" s="1">
@@ -788,7 +799,7 @@
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" s="1">
+      <c r="A51" s="3">
         <v>41852</v>
       </c>
       <c r="B51" s="1">
@@ -796,7 +807,7 @@
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" s="1">
+      <c r="A52" s="3">
         <v>41883</v>
       </c>
       <c r="B52" s="1">
@@ -804,7 +815,7 @@
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" s="1">
+      <c r="A53" s="3">
         <v>41913</v>
       </c>
       <c r="B53" s="1">
@@ -812,7 +823,7 @@
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" s="1">
+      <c r="A54" s="3">
         <v>41944</v>
       </c>
       <c r="B54" s="1">
@@ -820,7 +831,7 @@
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" s="1">
+      <c r="A55" s="3">
         <v>41974</v>
       </c>
       <c r="B55" s="1">
@@ -828,7 +839,7 @@
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" s="1">
+      <c r="A56" s="3">
         <v>42005</v>
       </c>
       <c r="B56" s="1">
@@ -836,7 +847,7 @@
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57" s="1">
+      <c r="A57" s="3">
         <v>42036</v>
       </c>
       <c r="B57" s="1">
@@ -844,7 +855,7 @@
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A58" s="1">
+      <c r="A58" s="3">
         <v>42064</v>
       </c>
       <c r="B58" s="1">
@@ -852,7 +863,7 @@
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A59" s="1">
+      <c r="A59" s="3">
         <v>42095</v>
       </c>
       <c r="B59" s="1">
@@ -860,7 +871,7 @@
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60" s="1">
+      <c r="A60" s="3">
         <v>42125</v>
       </c>
       <c r="B60" s="1">
@@ -868,7 +879,7 @@
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A61" s="1">
+      <c r="A61" s="3">
         <v>42156</v>
       </c>
       <c r="B61" s="1">
@@ -876,7 +887,7 @@
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A62" s="1">
+      <c r="A62" s="3">
         <v>42186</v>
       </c>
       <c r="B62" s="1">
@@ -884,7 +895,7 @@
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A63" s="1">
+      <c r="A63" s="3">
         <v>42217</v>
       </c>
       <c r="B63" s="1">
@@ -892,7 +903,7 @@
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A64" s="1">
+      <c r="A64" s="3">
         <v>42248</v>
       </c>
       <c r="B64" s="1">
@@ -900,7 +911,7 @@
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A65" s="1">
+      <c r="A65" s="3">
         <v>42278</v>
       </c>
       <c r="B65" s="1">
@@ -908,7 +919,7 @@
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A66" s="1">
+      <c r="A66" s="3">
         <v>42309</v>
       </c>
       <c r="B66" s="1">
@@ -916,7 +927,7 @@
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A67" s="1">
+      <c r="A67" s="3">
         <v>42339</v>
       </c>
       <c r="B67" s="1">
@@ -924,7 +935,7 @@
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A68" s="1">
+      <c r="A68" s="3">
         <v>42370</v>
       </c>
       <c r="B68" s="1">
@@ -932,7 +943,7 @@
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A69" s="1">
+      <c r="A69" s="3">
         <v>42401</v>
       </c>
       <c r="B69" s="1">
@@ -940,7 +951,7 @@
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A70" s="1">
+      <c r="A70" s="3">
         <v>42430</v>
       </c>
       <c r="B70" s="1">
@@ -948,7 +959,7 @@
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A71" s="1">
+      <c r="A71" s="3">
         <v>42461</v>
       </c>
       <c r="B71" s="1">
@@ -956,7 +967,7 @@
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A72" s="1">
+      <c r="A72" s="3">
         <v>42491</v>
       </c>
       <c r="B72" s="1">
@@ -964,7 +975,7 @@
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A73" s="1">
+      <c r="A73" s="3">
         <v>42522</v>
       </c>
       <c r="B73" s="1">
@@ -972,7 +983,7 @@
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A74" s="1">
+      <c r="A74" s="3">
         <v>42552</v>
       </c>
       <c r="B74" s="1">
@@ -980,7 +991,7 @@
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A75" s="1">
+      <c r="A75" s="3">
         <v>42583</v>
       </c>
       <c r="B75" s="1">
@@ -988,7 +999,7 @@
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A76" s="1">
+      <c r="A76" s="3">
         <v>42614</v>
       </c>
       <c r="B76" s="1">
@@ -996,7 +1007,7 @@
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A77" s="1">
+      <c r="A77" s="3">
         <v>42644</v>
       </c>
       <c r="B77" s="1">
@@ -1004,7 +1015,7 @@
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A78" s="1">
+      <c r="A78" s="3">
         <v>42675</v>
       </c>
       <c r="B78" s="1">
@@ -1012,7 +1023,7 @@
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A79" s="1">
+      <c r="A79" s="3">
         <v>42705</v>
       </c>
       <c r="B79" s="1">
@@ -1020,7 +1031,7 @@
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A80" s="1">
+      <c r="A80" s="3">
         <v>42736</v>
       </c>
       <c r="B80" s="1">
@@ -1028,7 +1039,7 @@
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A81" s="1">
+      <c r="A81" s="3">
         <v>42767</v>
       </c>
       <c r="B81" s="1">
@@ -1036,7 +1047,7 @@
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A82" s="1">
+      <c r="A82" s="3">
         <v>42795</v>
       </c>
       <c r="B82" s="1">
@@ -1044,7 +1055,7 @@
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A83" s="1">
+      <c r="A83" s="3">
         <v>42826</v>
       </c>
       <c r="B83" s="1">
@@ -1052,7 +1063,7 @@
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A84" s="1">
+      <c r="A84" s="3">
         <v>42856</v>
       </c>
       <c r="B84" s="1">
@@ -1060,7 +1071,7 @@
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A85" s="1">
+      <c r="A85" s="3">
         <v>42887</v>
       </c>
       <c r="B85" s="1">
@@ -1068,7 +1079,7 @@
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A86" s="1">
+      <c r="A86" s="3">
         <v>42917</v>
       </c>
       <c r="B86" s="1">
@@ -1076,7 +1087,7 @@
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A87" s="1">
+      <c r="A87" s="3">
         <v>42948</v>
       </c>
       <c r="B87" s="1">
@@ -1084,7 +1095,7 @@
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A88" s="1">
+      <c r="A88" s="3">
         <v>42979</v>
       </c>
       <c r="B88" s="1">
@@ -1092,7 +1103,7 @@
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A89" s="1">
+      <c r="A89" s="3">
         <v>43009</v>
       </c>
       <c r="B89" s="1">
@@ -1100,7 +1111,7 @@
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A90" s="1">
+      <c r="A90" s="3">
         <v>43040</v>
       </c>
       <c r="B90" s="1">
@@ -1108,7 +1119,7 @@
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A91" s="1">
+      <c r="A91" s="3">
         <v>43070</v>
       </c>
       <c r="B91" s="1">
@@ -1116,7 +1127,7 @@
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A92" s="1">
+      <c r="A92" s="3">
         <v>43101</v>
       </c>
       <c r="B92" s="1">
@@ -1124,7 +1135,7 @@
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A93" s="1">
+      <c r="A93" s="3">
         <v>43132</v>
       </c>
       <c r="B93" s="1">
@@ -1132,7 +1143,7 @@
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A94" s="1">
+      <c r="A94" s="3">
         <v>43160</v>
       </c>
       <c r="B94" s="1">
@@ -1140,7 +1151,7 @@
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A95" s="1">
+      <c r="A95" s="3">
         <v>43191</v>
       </c>
       <c r="B95" s="1">
@@ -1148,7 +1159,7 @@
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A96" s="1">
+      <c r="A96" s="3">
         <v>43221</v>
       </c>
       <c r="B96" s="1">
@@ -1156,7 +1167,7 @@
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A97" s="1">
+      <c r="A97" s="3">
         <v>43252</v>
       </c>
       <c r="B97" s="1">
@@ -1164,7 +1175,7 @@
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A98" s="1">
+      <c r="A98" s="3">
         <v>43282</v>
       </c>
       <c r="B98" s="1">
@@ -1172,7 +1183,7 @@
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A99" s="1">
+      <c r="A99" s="3">
         <v>43313</v>
       </c>
       <c r="B99" s="1">
@@ -1180,7 +1191,7 @@
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A100" s="1">
+      <c r="A100" s="3">
         <v>43344</v>
       </c>
       <c r="B100" s="1">
@@ -1188,7 +1199,7 @@
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A101" s="1">
+      <c r="A101" s="3">
         <v>43374</v>
       </c>
       <c r="B101" s="1">
@@ -1196,7 +1207,7 @@
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A102" s="1">
+      <c r="A102" s="3">
         <v>43405</v>
       </c>
       <c r="B102" s="1">
@@ -1204,7 +1215,7 @@
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A103" s="1">
+      <c r="A103" s="3">
         <v>43435</v>
       </c>
       <c r="B103" s="1">
@@ -1212,7 +1223,7 @@
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A104" s="1">
+      <c r="A104" s="3">
         <v>43466</v>
       </c>
       <c r="B104" s="1">
@@ -1220,7 +1231,7 @@
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A105" s="1">
+      <c r="A105" s="3">
         <v>43497</v>
       </c>
       <c r="B105" s="1">
@@ -1228,7 +1239,7 @@
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A106" s="1">
+      <c r="A106" s="3">
         <v>43525</v>
       </c>
       <c r="B106" s="1">
@@ -1236,7 +1247,7 @@
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A107" s="1">
+      <c r="A107" s="3">
         <v>43556</v>
       </c>
       <c r="B107" s="1">
@@ -1244,7 +1255,7 @@
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A108" s="1">
+      <c r="A108" s="3">
         <v>43586</v>
       </c>
       <c r="B108" s="1">
@@ -1252,7 +1263,7 @@
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A109" s="1">
+      <c r="A109" s="3">
         <v>43617</v>
       </c>
       <c r="B109" s="1">
@@ -1260,7 +1271,7 @@
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A110" s="1">
+      <c r="A110" s="3">
         <v>43647</v>
       </c>
       <c r="B110" s="1">
@@ -1268,7 +1279,7 @@
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A111" s="1">
+      <c r="A111" s="3">
         <v>43678</v>
       </c>
       <c r="B111" s="1">
@@ -1276,7 +1287,7 @@
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A112" s="1">
+      <c r="A112" s="3">
         <v>43709</v>
       </c>
       <c r="B112" s="1">
@@ -1284,7 +1295,7 @@
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A113" s="1">
+      <c r="A113" s="3">
         <v>43739</v>
       </c>
       <c r="B113" s="1">
@@ -1292,7 +1303,7 @@
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A114" s="1">
+      <c r="A114" s="3">
         <v>43770</v>
       </c>
       <c r="B114" s="1">
@@ -1300,7 +1311,7 @@
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A115" s="1">
+      <c r="A115" s="3">
         <v>43800</v>
       </c>
       <c r="B115" s="1">
@@ -1308,7 +1319,7 @@
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A116" s="1">
+      <c r="A116" s="3">
         <v>43831</v>
       </c>
       <c r="B116" s="1">
@@ -1316,7 +1327,7 @@
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A117" s="1">
+      <c r="A117" s="3">
         <v>43862</v>
       </c>
       <c r="B117" s="1">
@@ -1324,7 +1335,7 @@
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A118" s="1">
+      <c r="A118" s="3">
         <v>43891</v>
       </c>
       <c r="B118" s="1">
@@ -1332,7 +1343,7 @@
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A119" s="1">
+      <c r="A119" s="3">
         <v>43922</v>
       </c>
       <c r="B119" s="1">
@@ -1340,7 +1351,7 @@
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A120" s="1">
+      <c r="A120" s="3">
         <v>43952</v>
       </c>
       <c r="B120" s="1">
@@ -1348,7 +1359,7 @@
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A121" s="1">
+      <c r="A121" s="3">
         <v>43983</v>
       </c>
       <c r="B121" s="1">
@@ -1356,7 +1367,7 @@
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A122" s="1">
+      <c r="A122" s="3">
         <v>44013</v>
       </c>
       <c r="B122" s="1">
@@ -1364,7 +1375,7 @@
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A123" s="1">
+      <c r="A123" s="3">
         <v>44044</v>
       </c>
       <c r="B123" s="1">
@@ -1372,7 +1383,7 @@
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A124" s="1">
+      <c r="A124" s="3">
         <v>44075</v>
       </c>
       <c r="B124" s="1">
@@ -1380,7 +1391,7 @@
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A125" s="1">
+      <c r="A125" s="3">
         <v>44105</v>
       </c>
       <c r="B125" s="1">
@@ -1388,7 +1399,7 @@
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A126" s="1">
+      <c r="A126" s="3">
         <v>44136</v>
       </c>
       <c r="B126" s="1">
@@ -1396,7 +1407,7 @@
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A127" s="1">
+      <c r="A127" s="3">
         <v>44166</v>
       </c>
       <c r="B127" s="1">
@@ -1404,7 +1415,7 @@
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A128" s="1">
+      <c r="A128" s="3">
         <v>44197</v>
       </c>
       <c r="B128" s="1">
@@ -1412,7 +1423,7 @@
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A129" s="1">
+      <c r="A129" s="3">
         <v>44228</v>
       </c>
       <c r="B129" s="1">
@@ -1420,7 +1431,7 @@
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A130" s="1">
+      <c r="A130" s="3">
         <v>44256</v>
       </c>
       <c r="B130" s="1">
@@ -1428,7 +1439,7 @@
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A131" s="1">
+      <c r="A131" s="3">
         <v>44287</v>
       </c>
       <c r="B131" s="1">
@@ -1436,7 +1447,7 @@
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A132" s="1">
+      <c r="A132" s="3">
         <v>44317</v>
       </c>
       <c r="B132" s="1">
@@ -1444,7 +1455,7 @@
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A133" s="1">
+      <c r="A133" s="3">
         <v>44348</v>
       </c>
       <c r="B133" s="1">
@@ -1452,7 +1463,7 @@
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A134" s="1">
+      <c r="A134" s="3">
         <v>44378</v>
       </c>
       <c r="B134" s="1">
@@ -1460,7 +1471,7 @@
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A135" s="1">
+      <c r="A135" s="3">
         <v>44409</v>
       </c>
       <c r="B135" s="1">
@@ -1468,7 +1479,7 @@
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A136" s="1">
+      <c r="A136" s="3">
         <v>44440</v>
       </c>
       <c r="B136" s="1">
@@ -1476,7 +1487,7 @@
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A137" s="1">
+      <c r="A137" s="3">
         <v>44470</v>
       </c>
       <c r="B137" s="1">
@@ -1484,7 +1495,7 @@
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A138" s="1">
+      <c r="A138" s="3">
         <v>44501</v>
       </c>
       <c r="B138" s="1">
@@ -1492,7 +1503,7 @@
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A139" s="1">
+      <c r="A139" s="3">
         <v>44531</v>
       </c>
       <c r="B139" s="1">
@@ -1500,7 +1511,7 @@
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A140" s="1">
+      <c r="A140" s="3">
         <v>44562</v>
       </c>
       <c r="B140" s="1">
@@ -1508,7 +1519,7 @@
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A141" s="1">
+      <c r="A141" s="3">
         <v>44593</v>
       </c>
       <c r="B141" s="1">
@@ -1516,7 +1527,7 @@
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A142" s="1">
+      <c r="A142" s="3">
         <v>44621</v>
       </c>
       <c r="B142" s="1">
@@ -1524,7 +1535,7 @@
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A143" s="1">
+      <c r="A143" s="3">
         <v>44652</v>
       </c>
       <c r="B143" s="1">
@@ -1532,7 +1543,7 @@
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A144" s="1">
+      <c r="A144" s="3">
         <v>44682</v>
       </c>
       <c r="B144" s="1">
@@ -1540,7 +1551,7 @@
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A145" s="1">
+      <c r="A145" s="3">
         <v>44713</v>
       </c>
       <c r="B145" s="1">
@@ -1548,7 +1559,7 @@
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A146" s="1">
+      <c r="A146" s="3">
         <v>44743</v>
       </c>
       <c r="B146" s="1">
@@ -1556,7 +1567,7 @@
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A147" s="1">
+      <c r="A147" s="3">
         <v>44774</v>
       </c>
       <c r="B147" s="1">
@@ -1564,7 +1575,7 @@
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A148" s="1">
+      <c r="A148" s="3">
         <v>44805</v>
       </c>
       <c r="B148" s="1">
@@ -1572,7 +1583,7 @@
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A149" s="1">
+      <c r="A149" s="3">
         <v>44835</v>
       </c>
       <c r="B149" s="1">
@@ -1580,7 +1591,7 @@
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A150" s="1">
+      <c r="A150" s="3">
         <v>44866</v>
       </c>
       <c r="B150" s="1">
@@ -1588,7 +1599,7 @@
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A151" s="1">
+      <c r="A151" s="3">
         <v>44896</v>
       </c>
       <c r="B151" s="1">
@@ -1596,7 +1607,7 @@
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A152" s="1">
+      <c r="A152" s="3">
         <v>44927</v>
       </c>
       <c r="B152" s="1">
@@ -1604,7 +1615,7 @@
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A153" s="1">
+      <c r="A153" s="3">
         <v>44958</v>
       </c>
       <c r="B153" s="1">
@@ -1612,7 +1623,7 @@
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A154" s="1">
+      <c r="A154" s="3">
         <v>44986</v>
       </c>
       <c r="B154" s="1">
@@ -1620,7 +1631,7 @@
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A155" s="1">
+      <c r="A155" s="3">
         <v>45017</v>
       </c>
       <c r="B155" s="1">
@@ -1628,7 +1639,7 @@
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A156" s="1">
+      <c r="A156" s="3">
         <v>45047</v>
       </c>
       <c r="B156" s="1">
@@ -1636,7 +1647,7 @@
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A157" s="1">
+      <c r="A157" s="3">
         <v>45078</v>
       </c>
       <c r="B157" s="1">
@@ -1644,7 +1655,7 @@
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A158" s="1">
+      <c r="A158" s="3">
         <v>45108</v>
       </c>
       <c r="B158" s="1">
@@ -1652,7 +1663,7 @@
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A159" s="1">
+      <c r="A159" s="3">
         <v>45139</v>
       </c>
       <c r="B159" s="1">
@@ -1660,7 +1671,7 @@
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A160" s="1">
+      <c r="A160" s="3">
         <v>45170</v>
       </c>
       <c r="B160" s="1">
@@ -1668,7 +1679,7 @@
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A161" s="1">
+      <c r="A161" s="3">
         <v>45200</v>
       </c>
       <c r="B161" s="1">
@@ -1676,7 +1687,7 @@
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A162" s="1">
+      <c r="A162" s="3">
         <v>45231</v>
       </c>
       <c r="B162" s="1">
@@ -1684,7 +1695,7 @@
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A163" s="1">
+      <c r="A163" s="3">
         <v>45261</v>
       </c>
       <c r="B163" s="1">
